--- a/teaching/traditional_assets/database/data/turkey/turkey_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,109 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.249</v>
-      </c>
-      <c r="E2">
-        <v>0.206</v>
+        <v>0.24</v>
       </c>
       <c r="G2">
-        <v>0.02620013522650439</v>
+        <v>0.1114023591087811</v>
       </c>
       <c r="H2">
-        <v>0.02620013522650439</v>
+        <v>0.1114023591087811</v>
       </c>
       <c r="I2">
-        <v>0.06327489084713422</v>
+        <v>0.3013814847744595</v>
       </c>
       <c r="J2">
-        <v>0.05330404737302247</v>
+        <v>0.2389359461410508</v>
       </c>
       <c r="K2">
-        <v>31</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="L2">
-        <v>0.05240027045300879</v>
+        <v>0.2903014416775885</v>
       </c>
       <c r="M2">
-        <v>5.584000000000001</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01369970559371933</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1801290322580645</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.584000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01369970559371933</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1801290322580645</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>643.3</v>
+        <v>746.8000000000001</v>
       </c>
       <c r="V2">
-        <v>1.578263002944063</v>
+        <v>0.5445133065986147</v>
       </c>
       <c r="W2">
-        <v>0.1620879120879121</v>
+        <v>0.3121280614974722</v>
       </c>
       <c r="X2">
-        <v>0.07125214272888819</v>
+        <v>0.07914090511944322</v>
       </c>
       <c r="Y2">
-        <v>0.0908357693590239</v>
+        <v>0.232987156378029</v>
       </c>
       <c r="Z2">
-        <v>-2.369934737508747</v>
+        <v>-3.199055938355935</v>
       </c>
       <c r="AA2">
-        <v>-0.2378951727249356</v>
+        <v>-0.8791769670764366</v>
       </c>
       <c r="AB2">
-        <v>0.07112294000035087</v>
+        <v>0.07911505663451826</v>
       </c>
       <c r="AC2">
-        <v>-0.3090181127252865</v>
+        <v>-0.9582920237109548</v>
       </c>
       <c r="AD2">
-        <v>2.475</v>
+        <v>2.28</v>
       </c>
       <c r="AE2">
-        <v>0.6728728741769485</v>
+        <v>0.001854234174780563</v>
       </c>
       <c r="AF2">
-        <v>3.147872874176948</v>
+        <v>2.281854234174781</v>
       </c>
       <c r="AG2">
-        <v>-640.152127125823</v>
+        <v>-744.5181457658252</v>
       </c>
       <c r="AH2">
-        <v>0.007663759405861186</v>
+        <v>0.001661001873872339</v>
       </c>
       <c r="AI2">
-        <v>0.009684336175906806</v>
+        <v>0.005036295788167687</v>
       </c>
       <c r="AJ2">
-        <v>2.752725313836699</v>
+        <v>-1.187463625522647</v>
       </c>
       <c r="AK2">
-        <v>2.011462210503105</v>
+        <v>2.534804732014795</v>
       </c>
       <c r="AL2">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.06228295334440586</v>
-      </c>
-      <c r="AO2">
-        <v>36.37254901960785</v>
+        <v>0.02415203067731616</v>
       </c>
       <c r="AP2">
-        <v>-16.10931921903022</v>
-      </c>
-      <c r="AQ2">
-        <v>36.37254901960785</v>
+        <v>-7.886677673839805</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Halk Sigorta A.S. (IBSE:HALKS)</t>
+          <t>Ray Sigorta Anonim Sirketi (IBSE:RAYSG)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,121 +713,109 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.344</v>
-      </c>
-      <c r="E3">
-        <v>0.151</v>
+        <v>0.278</v>
       </c>
       <c r="G3">
-        <v>0.05532398635846912</v>
+        <v>0.1346633416458853</v>
       </c>
       <c r="H3">
-        <v>0.05532398635846912</v>
+        <v>0.1346633416458853</v>
       </c>
       <c r="I3">
-        <v>0.05949223190602501</v>
+        <v>0.1232123335806115</v>
       </c>
       <c r="J3">
-        <v>0.04659110745898812</v>
+        <v>0.09689769948018094</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>0.05305039787798409</v>
+        <v>0.1371571072319202</v>
       </c>
       <c r="M3">
-        <v>5.584000000000001</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.04809646856158484</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.3988571428571429</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>5.584000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.04809646856158484</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.3988571428571429</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>296.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="V3">
-        <v>2.553832902670112</v>
+        <v>0.2700471698113208</v>
       </c>
       <c r="W3">
-        <v>0.1931034482758621</v>
+        <v>0.247191011235955</v>
       </c>
       <c r="X3">
-        <v>0.07130167259397191</v>
+        <v>0.0791580553859379</v>
       </c>
       <c r="Y3">
-        <v>0.1218017756818902</v>
+        <v>0.1680329558500172</v>
       </c>
       <c r="Z3">
-        <v>-1.382399161864851</v>
+        <v>-1.46307258344311</v>
       </c>
       <c r="AA3">
-        <v>-0.06440750790166039</v>
+        <v>-0.1417683675081624</v>
       </c>
       <c r="AB3">
-        <v>0.07115714916073677</v>
+        <v>0.07913018663551842</v>
       </c>
       <c r="AC3">
-        <v>-0.1355646570623972</v>
+        <v>-0.2208985541436808</v>
       </c>
       <c r="AD3">
-        <v>1.38</v>
+        <v>0.74</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.001854234174780563</v>
       </c>
       <c r="AF3">
-        <v>1.38</v>
+        <v>0.7418542341747806</v>
       </c>
       <c r="AG3">
-        <v>-295.12</v>
+        <v>-90.85814576582521</v>
       </c>
       <c r="AH3">
-        <v>0.01174668028600613</v>
+        <v>0.002182297428029388</v>
       </c>
       <c r="AI3">
-        <v>0.01890929021649767</v>
+        <v>0.01676815420637891</v>
       </c>
       <c r="AJ3">
-        <v>1.648530890403307</v>
+        <v>-0.3658591744271597</v>
       </c>
       <c r="AK3">
-        <v>1.32032927702219</v>
+        <v>1.918532583921194</v>
       </c>
       <c r="AL3">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.08679245283018867</v>
-      </c>
-      <c r="AO3">
-        <v>15.3921568627451</v>
+        <v>0.06850583225328642</v>
       </c>
       <c r="AP3">
-        <v>-18.56100628930817</v>
-      </c>
-      <c r="AQ3">
-        <v>15.3921568627451</v>
+        <v>-8.411233638754416</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ray Sigorta Anonim Sirketi (IBSE:RAYSG)</t>
+          <t>Türkiye Sigorta Anonim Sirketi (IBSE:TURSG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,28 +835,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.249</v>
-      </c>
-      <c r="E4">
-        <v>0.206</v>
+        <v>0.202</v>
       </c>
       <c r="G4">
-        <v>0.02951167728237792</v>
+        <v>0.1031111111111111</v>
       </c>
       <c r="H4">
-        <v>0.02951167728237792</v>
+        <v>0.1031111111111111</v>
       </c>
       <c r="I4">
-        <v>0.09394588220525663</v>
+        <v>0.3648888888888889</v>
       </c>
       <c r="J4">
-        <v>0.0714279259034812</v>
+        <v>0.2916104817484838</v>
       </c>
       <c r="K4">
-        <v>5.9</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="L4">
-        <v>0.06263269639065817</v>
+        <v>0.3448888888888889</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -904,55 +877,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>100</v>
+        <v>655.2</v>
       </c>
       <c r="V4">
-        <v>1.067235859124867</v>
+        <v>0.6346992153443767</v>
       </c>
       <c r="W4">
-        <v>0.1620879120879121</v>
+        <v>0.3770651117589893</v>
       </c>
       <c r="X4">
-        <v>0.07125214272888819</v>
+        <v>0.07912375485294854</v>
       </c>
       <c r="Y4">
-        <v>0.0908357693590239</v>
+        <v>0.2979413569060407</v>
       </c>
       <c r="Z4">
-        <v>-3.330562517612474</v>
+        <v>-5.543646980560279</v>
       </c>
       <c r="AA4">
-        <v>-0.2378951727249356</v>
+        <v>-1.616585566644711</v>
       </c>
       <c r="AB4">
-        <v>0.07112294000035087</v>
+        <v>0.07909992663351809</v>
       </c>
       <c r="AC4">
-        <v>-0.3090181127252865</v>
+        <v>-1.695685493278229</v>
       </c>
       <c r="AD4">
-        <v>0.6820000000000001</v>
+        <v>1.54</v>
       </c>
       <c r="AE4">
-        <v>0.3164894813241301</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9984894813241301</v>
+        <v>1.54</v>
       </c>
       <c r="AG4">
-        <v>-99.00151051867587</v>
+        <v>-653.6600000000001</v>
       </c>
       <c r="AH4">
-        <v>0.0105438797048716</v>
+        <v>0.001489592199953571</v>
       </c>
       <c r="AI4">
-        <v>0.02194555231847823</v>
+        <v>0.003766754720673124</v>
       </c>
       <c r="AJ4">
-        <v>18.67420807143904</v>
+        <v>-1.726336361715615</v>
       </c>
       <c r="AK4">
-        <v>1.816491131649485</v>
+        <v>2.653271635005682</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -961,135 +934,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.06831613743363719</v>
+        <v>0.01842105263157895</v>
       </c>
       <c r="AP4">
-        <v>-9.917009968814574</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Günes Sigorta Anonim Sirketi (IBSE:GUSGR)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.125</v>
-      </c>
-      <c r="E5">
-        <v>0.253</v>
-      </c>
-      <c r="G5">
-        <v>-0.008051391862955032</v>
-      </c>
-      <c r="H5">
-        <v>-0.008051391862955032</v>
-      </c>
-      <c r="I5">
-        <v>0.05517654527378774</v>
-      </c>
-      <c r="J5">
-        <v>0.05428297821315914</v>
-      </c>
-      <c r="K5">
-        <v>11.1</v>
-      </c>
-      <c r="L5">
-        <v>0.04753747323340471</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>-0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>-0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>246.8</v>
-      </c>
-      <c r="V5">
-        <v>1.247724974721941</v>
-      </c>
-      <c r="W5">
-        <v>0.09503424657534247</v>
-      </c>
-      <c r="X5">
-        <v>0.07097968156285722</v>
-      </c>
-      <c r="Y5">
-        <v>0.02405456501248525</v>
-      </c>
-      <c r="Z5">
-        <v>-7.66991658754439</v>
-      </c>
-      <c r="AA5">
-        <v>-0.41634591501842</v>
-      </c>
-      <c r="AB5">
-        <v>0.07092177381704189</v>
-      </c>
-      <c r="AC5">
-        <v>-0.4872676888354619</v>
-      </c>
-      <c r="AD5">
-        <v>0.413</v>
-      </c>
-      <c r="AE5">
-        <v>0.3563833928528185</v>
-      </c>
-      <c r="AF5">
-        <v>0.7693833928528184</v>
-      </c>
-      <c r="AG5">
-        <v>-246.0306166071472</v>
-      </c>
-      <c r="AH5">
-        <v>0.003874632532502042</v>
-      </c>
-      <c r="AI5">
-        <v>0.003724576121668564</v>
-      </c>
-      <c r="AJ5">
-        <v>5.101129405231127</v>
-      </c>
-      <c r="AK5">
-        <v>6.115506978419978</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0.02980873330927463</v>
-      </c>
-      <c r="AP5">
-        <v>-17.75753277568727</v>
+        <v>-7.818899521531102</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/traditional_assets/database/data/turkey/turkey_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_insurance_general.xlsx
@@ -642,10 +642,10 @@
         <v>0.3121280614974722</v>
       </c>
       <c r="X2">
-        <v>0.07914090511944322</v>
+        <v>0.07581796488389111</v>
       </c>
       <c r="Y2">
-        <v>0.232987156378029</v>
+        <v>0.2363100966135811</v>
       </c>
       <c r="Z2">
         <v>-3.199055938355935</v>
@@ -654,10 +654,10 @@
         <v>-0.8791769670764366</v>
       </c>
       <c r="AB2">
-        <v>0.07911505663451826</v>
+        <v>0.07578890859571075</v>
       </c>
       <c r="AC2">
-        <v>-0.9582920237109548</v>
+        <v>-0.9549658756721473</v>
       </c>
       <c r="AD2">
         <v>2.28</v>
@@ -764,10 +764,10 @@
         <v>0.247191011235955</v>
       </c>
       <c r="X3">
-        <v>0.0791580553859379</v>
+        <v>0.07583597537525198</v>
       </c>
       <c r="Y3">
-        <v>0.1680329558500172</v>
+        <v>0.1713550358607031</v>
       </c>
       <c r="Z3">
         <v>-1.46307258344311</v>
@@ -776,10 +776,10 @@
         <v>-0.1417683675081624</v>
       </c>
       <c r="AB3">
-        <v>0.07913018663551842</v>
+        <v>0.07580429214353542</v>
       </c>
       <c r="AC3">
-        <v>-0.2208985541436808</v>
+        <v>-0.2175726596516978</v>
       </c>
       <c r="AD3">
         <v>0.74</v>
@@ -886,10 +886,10 @@
         <v>0.3770651117589893</v>
       </c>
       <c r="X4">
-        <v>0.07912375485294854</v>
+        <v>0.07579995439253025</v>
       </c>
       <c r="Y4">
-        <v>0.2979413569060407</v>
+        <v>0.301265157366459</v>
       </c>
       <c r="Z4">
         <v>-5.543646980560279</v>
@@ -898,10 +898,10 @@
         <v>-1.616585566644711</v>
       </c>
       <c r="AB4">
-        <v>0.07909992663351809</v>
+        <v>0.07577352504788608</v>
       </c>
       <c r="AC4">
-        <v>-1.695685493278229</v>
+        <v>-1.692359091692597</v>
       </c>
       <c r="AD4">
         <v>1.54</v>
